--- a/bom/جاروبرقی/C1B.xlsx
+++ b/bom/جاروبرقی/C1B.xlsx
@@ -576,12 +576,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>برچسب بی اثر شفاف 5 سانتی</t>
+          <t>برچسب سایز 57*32</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1909071998</t>
+          <t>1909070323</t>
         </is>
       </c>
     </row>
@@ -756,72 +756,72 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>جعبه لوازم جانبی</t>
+          <t>جاروبرقی ( C1 B ) سری Düsseldorf مشکی</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>1502010178</t>
+          <t>1102010130</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>جعبه لوازم جانبی چاپ شده Dusseldorf</t>
+          <t>جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>1749570002</t>
+          <t>1502010178</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>چرخ بزرگ جارو</t>
+          <t>جعبه لوازم جانبی چاپ شده Dusseldorf</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>1749175014</t>
+          <t>1749570002</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>چرخ سیم جمع کن چپ  _ 02</t>
+          <t>چرخ بزرگ جارو</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>1749570004</t>
+          <t>1749175014</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>چرخ کوچک جارو</t>
+          <t>چرخ سیم جمع کن چپ  _ 02</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>1749175030</t>
+          <t>1749570004</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>چسب حرارتی 12 میلی متر</t>
+          <t>چرخ کوچک جارو</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>1330260067</t>
+          <t>1749175030</t>
         </is>
       </c>
     </row>
@@ -1308,24 +1308,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>کاور فوم بسته بندی محصول 70 * 58</t>
+          <t>کاور ضمانت نامه 30*20</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>1749016518</t>
+          <t>1749015987</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>کاور نایلون شیرینگ  با عرض 75 سانتیمتر (ضخامت 70 میکرون)</t>
+          <t>کاور فوم بسته بندی محصول 70 * 58</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>1909040039</t>
+          <t>1749016518</t>
         </is>
       </c>
     </row>
@@ -1428,192 +1428,192 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>مجموعه برد اصلی و تنظیم قدرت</t>
+          <t>لیبل مدل ابعاد 7 سانتی در 23 سانتی متر</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>1502030001</t>
+          <t>1909072162</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>مجموعه برد و موتور جاروبرقی</t>
+          <t>مجموعه برد اصلی و تنظیم قدرت</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>1502040016</t>
+          <t>1502030001</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>مجموعه جعبه لوازم جانبی</t>
+          <t>مجموعه برد و موتور جاروبرقی</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>1502010183</t>
+          <t>1502040016</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>مجموعه چرخ جارو</t>
+          <t>مجموعه جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>1502010158</t>
+          <t>1502010183</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>مجموعه چرخ لاستیکی کوچک</t>
+          <t>مجموعه چرخ جارو</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>1502010157</t>
+          <t>1502010158</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>مجموعه خرطومی</t>
+          <t>مجموعه چرخ لاستیکی کوچک</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>1502010147</t>
+          <t>1502010157</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>مجموعه سوپاپ اطمینان</t>
+          <t>مجموعه خرطومی</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>1502010159</t>
+          <t>1502010147</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>مجموعه سیم جمع کن</t>
+          <t>مجموعه سوپاپ اطمینان</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>1502010160</t>
+          <t>1502010159</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>مجموعه فریم لاستیکی جارو</t>
+          <t>مجموعه سیم جمع کن</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>1502010177</t>
+          <t>1502010160</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>مجموعه فیلتر خروجی</t>
+          <t>مجموعه فریم لاستیکی جارو</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>1502010155</t>
+          <t>1502010177</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>مجموعه فیلتر ورودی</t>
+          <t>مجموعه فیلتر خروجی</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>1502010154</t>
+          <t>1502010155</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>موتور</t>
+          <t>مجموعه فیلتر ورودی</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>1208010184</t>
+          <t>1502010154</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>نازل کناره بلند</t>
+          <t>موتور</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>1754015002</t>
+          <t>1208010184</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>نشانگر کیسه زباله</t>
+          <t>نازل کناره بلند</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>1749015426</t>
+          <t>1754015002</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>نگهدارنده سیم جمع کن</t>
+          <t>نشانگر کیسه زباله</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>1753125012</t>
+          <t>1749015426</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>نوار چسب شیشه ای (عرض 5 سانتمیتری)</t>
+          <t>نگهدارنده سیم جمع کن</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>1906080091</t>
+          <t>1753125012</t>
         </is>
       </c>
     </row>
@@ -1644,49 +1644,47 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>ورق آلومینیوم هات استمپ</t>
+          <t>ولوم تنظیم قدرت</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>1603200002</t>
+          <t>1222020012</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>ولوم تنظیم قدرت</t>
+          <t>ولوم تنظیم قدرت کروم</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>1222020012</t>
+          <t>1222020013</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>ولوم تنظیم قدرت کروم</t>
+          <t>‎چرخ سیم جمع کن راست _ 02</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>1222020013</t>
+          <t>1749570003</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>‎چرخ سیم جمع کن راست _ 02</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>1749570003</t>
-        </is>
+          <t>سایر</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
